--- a/Score.xlsx
+++ b/Score.xlsx
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C5077" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,9 +490,30 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
